--- a/question_difficulty_level_result/11.xlsx
+++ b/question_difficulty_level_result/11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,31 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>frequency</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>frequency_occurrence</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>frequency_occurrence_probab</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>max_probab</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>max_probab_percentage</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>recommended_level</t>
         </is>
       </c>
@@ -484,7 +509,28 @@
           <t>11</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="n">
+        <v>8</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>{"L2":6,"L1":2}</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>{"L2":0.75,"L1":0.25}</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>75.00</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>L2</t>
         </is>
@@ -515,6 +561,11 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -540,7 +591,28 @@
           <t>11</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="n">
+        <v>8</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>{"L2":6,"L3":2}</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>{"L2":0.75,"L3":0.25}</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>75.00</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -570,7 +642,28 @@
           <t>11</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="n">
+        <v>16</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>{"L3":12,"L2":2,"L1":2}</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>{"L3":0.75,"L2":0.125,"L1":0.125}</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>75.00</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -601,6 +694,11 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,7 +724,28 @@
           <t>11</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="n">
+        <v>8</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>{"L3":8}</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -656,7 +775,28 @@
           <t>11</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="n">
+        <v>8</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>{"L2":4,"L3":4}</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>{"L2":0.5,"L3":0.5}</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -686,7 +826,28 @@
           <t>11</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="n">
+        <v>8</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>{"L2":6,"L3":2}</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>{"L2":0.75,"L3":0.25}</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>75.00</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -716,7 +877,28 @@
           <t>11</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="n">
+        <v>8</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>{"L2":4,"L3":3,"L1":1}</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>{"L2":0.5,"L3":0.375,"L1":0.125}</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -746,7 +928,28 @@
           <t>11</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="n">
+        <v>8</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>{"L3":5,"L2":3}</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>{"L3":0.625,"L2":0.375}</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>62.50</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -777,6 +980,11 @@
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -802,7 +1010,28 @@
           <t>11</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="n">
+        <v>8</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>{"L2":4,"L3":3,"L1":1}</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>{"L2":0.5,"L3":0.375,"L1":0.125}</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -833,6 +1062,11 @@
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -858,7 +1092,28 @@
           <t>11</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="n">
+        <v>8</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>{"L3":8}</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -888,7 +1143,28 @@
           <t>11</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="n">
+        <v>8</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>{"L3":8}</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -919,6 +1195,11 @@
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -944,7 +1225,28 @@
           <t>11</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="n">
+        <v>8</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>{"L3":8}</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -974,7 +1276,28 @@
           <t>11</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="n">
+        <v>8</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>{"L3":7,"L2":1}</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>{"L3":0.875,"L2":0.125}</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1004,7 +1327,28 @@
           <t>11</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="n">
+        <v>8</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>{"L3":8}</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1034,7 +1378,28 @@
           <t>11</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="n">
+        <v>8</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>{"L3":7,"L2":1}</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>{"L3":0.875,"L2":0.125}</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1064,7 +1429,28 @@
           <t>11</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="n">
+        <v>8</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>{"L2":4,"L3":3,"L1":1}</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>{"L2":0.5,"L3":0.375,"L1":0.125}</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1094,7 +1480,28 @@
           <t>11</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="n">
+        <v>8</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>{"L3":8}</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>{"L3":1.0}</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>L3</t>
         </is>
@@ -1124,7 +1531,28 @@
           <t>11</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="n">
+        <v>8</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>{"L2":5,"L1":3}</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>{"L2":0.625,"L1":0.375}</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>62.50</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>L2</t>
         </is>
@@ -1155,6 +1583,11 @@
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1181,6 +1614,11 @@
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
